--- a/data/df_videos_2022.xlsx
+++ b/data/df_videos_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uzh-my.sharepoint.com/personal/ishwarya_sutharsan_uzh_ch/Documents/Desktop/Uni/Uni_ZH/Computerlinguistik/6_Semester/Social_Computing/Project_Git/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzobehna/projects/Social-Computing_Final-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{743294AB-503C-45F1-8D6A-F47B6E0D778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AD9B09D-3DB3-49AD-86DB-950EA1C6DD3E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6745E7-C40A-3C4B-8832-1619F10AA7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{DBC4B95C-1BB4-4823-9CDB-6A0BE2B02B8E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{DBC4B95C-1BB4-4823-9CDB-6A0BE2B02B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="df_videos_2022" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="127">
   <si>
     <t>video_id</t>
   </si>
@@ -827,6 +827,15 @@
   <si>
     <t>tutorial</t>
   </si>
+  <si>
+    <t>video off topic</t>
+  </si>
+  <si>
+    <t>off topic</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
 </sst>
 </file>
 
@@ -841,7 +850,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,6 +860,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,14 +882,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -909,10 +926,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -956,7 +969,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1274,23 +1287,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7A8812-8381-4861-A28C-ACC80DCAF8D4}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="4" width="12.53125" customWidth="1"/>
-    <col min="5" max="5" width="18.265625" customWidth="1"/>
-    <col min="6" max="6" width="12.53125" customWidth="1"/>
-    <col min="7" max="9" width="7.3984375" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1325,39 +1338,42 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>44718.667430555557</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>34544537</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>13675</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>24</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1421,7 +1437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1453,7 +1469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1488,71 +1504,77 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>44817.877615740741</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>4774800</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>6991</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>20</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>44824.850486111114</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>4284171</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>6428</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>20</v>
       </c>
+      <c r="K8" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1584,39 +1606,42 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>44866.87296296296</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>3898549</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>6279</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>20</v>
       </c>
+      <c r="K10" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1648,7 +1673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1680,7 +1705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -1711,8 +1736,11 @@
       <c r="J13" s="2">
         <v>28</v>
       </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
@@ -1743,8 +1771,11 @@
       <c r="J14" s="2">
         <v>28</v>
       </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -1775,40 +1806,43 @@
       <c r="J15" s="2">
         <v>24</v>
       </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>44713.583611111113</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>2396849</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>2758</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -1839,104 +1873,107 @@
       <c r="J17" s="2">
         <v>27</v>
       </c>
+      <c r="K17" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>44572.583553240744</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>1897794</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>1671</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>44901.708587962959</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>1791723</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <v>1783</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>44778.243576388886</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>1625930</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>1950</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>116</v>
       </c>
